--- a/summary/summary_week_50_100.xlsx
+++ b/summary/summary_week_50_100.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hankyu\Desktop\BAX\model_comparison\summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCE8124-5F88-4C4D-9A6C-8225A70B5372}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3673375-B7A3-43A8-BC4E-FE39F80E876D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6618" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -744,29 +744,29 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -815,11 +815,18 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1143,7 +1150,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1178,10 +1185,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2">
@@ -1205,8 +1212,8 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="4">
@@ -1229,8 +1236,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="4">
@@ -1253,8 +1260,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="4">
@@ -1277,8 +1284,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="4">
@@ -1301,8 +1308,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="4">
@@ -1325,8 +1332,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="4">
@@ -1349,8 +1356,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="6">
@@ -1373,10 +1380,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="2">
@@ -1399,8 +1406,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="4">
@@ -1423,8 +1430,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="4">
@@ -1447,8 +1454,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="4">
@@ -1471,8 +1478,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="4">
@@ -1495,8 +1502,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="4">
@@ -1519,8 +1526,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="4">
@@ -1543,8 +1550,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="6">
@@ -1567,10 +1574,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="2">
@@ -1593,8 +1600,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15" t="s">
+      <c r="A19" s="16"/>
+      <c r="B19" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="4">
@@ -1617,8 +1624,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15" t="s">
+      <c r="A20" s="16"/>
+      <c r="B20" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="4">
@@ -1641,8 +1648,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15" t="s">
+      <c r="A21" s="16"/>
+      <c r="B21" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="4">
@@ -1665,8 +1672,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15" t="s">
+      <c r="A22" s="16"/>
+      <c r="B22" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="4">
@@ -1689,8 +1696,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15" t="s">
+      <c r="A23" s="16"/>
+      <c r="B23" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="4">
@@ -1713,8 +1720,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15" t="s">
+      <c r="A24" s="16"/>
+      <c r="B24" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="4">
@@ -1737,8 +1744,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="6">
@@ -1764,7 +1771,7 @@
       <c r="A26" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="2">
@@ -1787,8 +1794,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15" t="s">
+      <c r="A27" s="16"/>
+      <c r="B27" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="4">
@@ -1811,8 +1818,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15" t="s">
+      <c r="A28" s="16"/>
+      <c r="B28" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="4">
@@ -1835,8 +1842,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="4">
@@ -1859,8 +1866,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15" t="s">
+      <c r="A30" s="16"/>
+      <c r="B30" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="4">
@@ -1883,8 +1890,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="4">
@@ -1907,8 +1914,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15" t="s">
+      <c r="A32" s="16"/>
+      <c r="B32" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="4">
@@ -1931,8 +1938,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17" t="s">
+      <c r="A33" s="17"/>
+      <c r="B33" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="6">
@@ -1962,8 +1969,11 @@
     <mergeCell ref="A26:A33"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:H33">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>C2=MAX($C2:$H2)</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>C2=MAX($C2:$H2)</formula>
+      <formula>C2=MIN($C2:$H2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/summary/summary_week_50_100.xlsx
+++ b/summary/summary_week_50_100.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hankyu\Desktop\BAX\model_comparison\summary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sulyunlee/Desktop/OHC/model_comparison/summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3673375-B7A3-43A8-BC4E-FE39F80E876D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE25A17-1BA0-0F47-BEF8-BA44EABAEE75}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6618" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="19200" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary_week_50_100 - Copy" sheetId="1" r:id="rId1"/>
@@ -815,14 +815,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -1150,18 +1143,18 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.26171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.15625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
         <v>18</v>
       </c>
@@ -1184,7 +1177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>15</v>
       </c>
@@ -1211,7 +1204,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="13" t="s">
         <v>7</v>
@@ -1235,7 +1228,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="13" t="s">
         <v>8</v>
@@ -1259,7 +1252,7 @@
         <v>4.3630892943880499E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="13" t="s">
         <v>9</v>
@@ -1283,7 +1276,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
       <c r="B6" s="13" t="s">
         <v>10</v>
@@ -1307,7 +1300,7 @@
         <v>4.6178460859155598E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
       <c r="B7" s="13" t="s">
         <v>11</v>
@@ -1331,7 +1324,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
       <c r="B8" s="13" t="s">
         <v>12</v>
@@ -1355,7 +1348,7 @@
         <v>4.9567988731444197E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="14" t="s">
         <v>13</v>
@@ -1379,7 +1372,7 @@
         <v>4.2159223641796296E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>16</v>
       </c>
@@ -1405,7 +1398,7 @@
         <v>0.11560750360750301</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
       <c r="B11" s="13" t="s">
         <v>7</v>
@@ -1429,7 +1422,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
       <c r="B12" s="13" t="s">
         <v>8</v>
@@ -1453,7 +1446,7 @@
         <v>0.155845922263322</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
       <c r="B13" s="13" t="s">
         <v>9</v>
@@ -1477,7 +1470,7 @@
         <v>0.159999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
       <c r="B14" s="13" t="s">
         <v>10</v>
@@ -1501,7 +1494,7 @@
         <v>0.15463839514032701</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="13" t="s">
         <v>11</v>
@@ -1525,7 +1518,7 @@
         <v>0.13120000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="13" t="s">
         <v>12</v>
@@ -1549,7 +1542,7 @@
         <v>0.136251261287372</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="14" t="s">
         <v>13</v>
@@ -1573,7 +1566,7 @@
         <v>4.9537566805579903E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>17</v>
       </c>
@@ -1599,7 +1592,7 @@
         <v>3.3018705844493401E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="13" t="s">
         <v>7</v>
@@ -1623,7 +1616,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
       <c r="B20" s="13" t="s">
         <v>8</v>
@@ -1647,7 +1640,7 @@
         <v>4.0186121156406303E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="16"/>
       <c r="B21" s="13" t="s">
         <v>9</v>
@@ -1671,7 +1664,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="13" t="s">
         <v>10</v>
@@ -1695,7 +1688,7 @@
         <v>4.6026841671599601E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="B23" s="13" t="s">
         <v>11</v>
@@ -1719,7 +1712,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
       <c r="B24" s="13" t="s">
         <v>12</v>
@@ -1743,7 +1736,7 @@
         <v>4.55786847491019E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="14" t="s">
         <v>13</v>
@@ -1767,7 +1760,7 @@
         <v>0.23215215490358701</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
         <v>14</v>
       </c>
@@ -1793,7 +1786,7 @@
         <v>0.101303018876548</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
       <c r="B27" s="13" t="s">
         <v>7</v>
@@ -1817,7 +1810,7 @@
         <v>0.183999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
       <c r="B28" s="13" t="s">
         <v>8</v>
@@ -1841,7 +1834,7 @@
         <v>0.19717187578661599</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="B29" s="13" t="s">
         <v>9</v>
@@ -1865,7 +1858,7 @@
         <v>0.16899999999999901</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="B30" s="13" t="s">
         <v>10</v>
@@ -1889,7 +1882,7 @@
         <v>0.18110812897384301</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
       <c r="B31" s="13" t="s">
         <v>11</v>
@@ -1913,7 +1906,7 @@
         <v>0.12759999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="13" t="s">
         <v>12</v>
@@ -1937,7 +1930,7 @@
         <v>0.14446224361183799</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="B33" s="14" t="s">
         <v>13</v>
@@ -1969,10 +1962,10 @@
     <mergeCell ref="A26:A33"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:H33">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>C2=MAX($C2:$H2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>C2=MIN($C2:$H2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/summary/summary_week_50_100.xlsx
+++ b/summary/summary_week_50_100.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sulyunlee/Desktop/OHC/model_comparison/summary/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hankyu\Desktop\BAX\model_comparison\summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE25A17-1BA0-0F47-BEF8-BA44EABAEE75}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6307ADA4-E66B-461F-BEA6-D503991B770A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="19200" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="642" yWindow="462" windowWidth="19200" windowHeight="15762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary_week_50_100 - Copy" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="23">
   <si>
     <t>baseline_agg</t>
   </si>
@@ -88,6 +88,19 @@
   <si>
     <t>Metric</t>
   </si>
+  <si>
+    <t>proposed_com</t>
+  </si>
+  <si>
+    <t>proposed_emb</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Neural
+Network</t>
+  </si>
 </sst>
 </file>
 
@@ -96,7 +109,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +244,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFBFBFBF"/>
+      <name val="Inherit"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -413,7 +431,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -660,43 +678,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -742,9 +723,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -752,23 +732,31 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -819,14 +807,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1140,836 +1128,1347 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I33"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.47265625" customWidth="1"/>
+    <col min="2" max="2" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.15625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.05078125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:10" ht="14.7" thickBot="1">
+      <c r="A1" s="11"/>
+      <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="I1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="8">
         <v>2.01036486347262E-2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>1.33333333333333E-3</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>1.4184397163120499E-3</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>6.0514252374396303E-2</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>1.2E-2</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="1">
         <v>3.32637957005016E-2</v>
       </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="13" t="s">
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="17"/>
+      <c r="B3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="9">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>1.4893617021276499E-2</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>0.06</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <v>4.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="13" t="s">
+      <c r="I3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="17"/>
+      <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="9">
         <v>4.0647786750540099E-3</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>6.2409815444356099E-3</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>1.6080860851031799E-2</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>5.8534271597896002E-2</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>3.8666719171286001E-2</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <v>4.3630892943880499E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="13" t="s">
+      <c r="I4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="17"/>
+      <c r="B5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="9">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>1.48936170212766E-2</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>3.1E-2</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <v>4.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="13" t="s">
+      <c r="I5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="17"/>
+      <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="9">
         <v>1.32690548382606E-2</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>5.3777349839337603E-3</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>1.5675350613834502E-2</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>6.2108010554847902E-2</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>3.5397028218211099E-2</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <v>4.6178460859155598E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="13" t="s">
+      <c r="I6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="17"/>
+      <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="9">
         <v>1.84E-2</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>2.8E-3</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>1.1063829787233999E-2</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>4.9599999999999998E-2</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>2.6800000000000001E-2</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <v>5.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="13" t="s">
+      <c r="I7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="17"/>
+      <c r="B8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="9">
         <v>1.5941422928318599E-2</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>3.48798923303401E-3</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>1.25088733324963E-2</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>5.2002829042240503E-2</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>3.0269978642638098E-2</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <v>4.9567988731444197E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="14" t="s">
+      <c r="I8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.7" thickBot="1">
+      <c r="A9" s="18"/>
+      <c r="B9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="10">
         <v>4.5818011733987501E-3</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>7.1428571428571396E-4</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>1.11982082866741E-3</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>1.1291193259694099E-2</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>3.0952380952380901E-3</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="5">
         <v>4.2159223641796296E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="I9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="8">
         <v>7.1111111111111097E-2</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>0</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>2.86176433992783E-2</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>9.26240601503759E-2</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>3.0606060606060598E-2</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="1">
         <v>0.11560750360750301</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="13" t="s">
+      <c r="I10" s="1">
+        <v>0.12533044733044699</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.146169958696</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="17"/>
+      <c r="B11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="9">
         <v>0.13600000000000001</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>0</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>5.1063829787233998E-2</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>0.16800000000000001</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="3">
         <v>0.16800000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="13" t="s">
+      <c r="I11" s="3">
+        <v>0.184</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="17"/>
+      <c r="B12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="9">
         <v>0.126846020037925</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>0</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>4.4843189712866799E-2</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>0.17020935991336</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>7.8818303009853902E-2</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="3">
         <v>0.155845922263322</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="13" t="s">
+      <c r="I12" s="3">
+        <v>0.18027245829779501</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.17083683205899999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="17"/>
+      <c r="B13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="9">
         <v>0.10199999999999999</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>2E-3</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>4.6808510638297801E-2</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>0.14399999999999899</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="3">
         <v>0.159999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="13" t="s">
+      <c r="I13" s="3">
+        <v>0.20399999999999899</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.16800000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="17"/>
+      <c r="B14" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="9">
         <v>0.106164363237664</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>1.43732595793906E-3</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>4.3658658040458903E-2</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>0.15256764226826999</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>7.6739841025681599E-2</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="3">
         <v>0.15463839514032701</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="13" t="s">
+      <c r="I14" s="3">
+        <v>0.19619301215073101</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.16634713464799999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="17"/>
+      <c r="B15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="9">
         <v>7.6799999999999993E-2</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>4.5531914893617E-2</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>0.12239999999999999</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>4.2799999999999998E-2</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="3">
         <v>0.13120000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="13" t="s">
+      <c r="I15" s="3">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.13439999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="17"/>
+      <c r="B16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="9">
         <v>8.5589769890152698E-2</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>7.8456894169710596E-4</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>4.4491018075143697E-2</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>0.13254944311185399</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>5.4074096300911402E-2</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="3">
         <v>0.136251261287372</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="14" t="s">
+      <c r="I16" s="3">
+        <v>0.17215019849659799</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.14234589730899999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="14.7" thickBot="1">
+      <c r="A17" s="18"/>
+      <c r="B17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="10">
         <v>2.1986272510315999E-3</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>0</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>1.11499214389263E-2</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>4.9973719151780102E-3</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>6.1721611721611697E-3</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="5">
         <v>4.9537566805579903E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="I17" s="5">
+        <v>3.9739699177458402E-3</v>
+      </c>
+      <c r="J17" s="6">
+        <v>6.5130486519600003E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="8">
         <v>2.5679809508335101E-2</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>2.0087385029097298E-3</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>3.4158355079840501E-3</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>6.1068618046888803E-2</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>2.0405720921741002E-2</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="1">
         <v>3.3018705844493401E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="13" t="s">
+      <c r="I18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="17"/>
+      <c r="B19" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="9">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>2.5531914893616999E-2</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>0.126</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>1.39999999999999E-2</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="3">
         <v>3.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="13" t="s">
+      <c r="I19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="17"/>
+      <c r="B20" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="9">
         <v>4.8304829539298703E-2</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>5.7269197950493801E-3</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>2.6465001599952999E-2</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>0.116124171383267</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>1.3695478485916599E-2</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="3">
         <v>4.0186121156406303E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="13" t="s">
+      <c r="I20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="17"/>
+      <c r="B21" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="9">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>2.7659574468085101E-2</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>0.115</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>1.2E-2</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="3">
         <v>4.7E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="13" t="s">
+      <c r="I21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="17"/>
+      <c r="B22" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="9">
         <v>5.32425092081589E-2</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>6.6534817833372398E-3</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>2.7323724614383101E-2</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>0.111654225127243</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>1.2343486416670799E-2</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="3">
         <v>4.6026841671599601E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="13" t="s">
+      <c r="I22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="17"/>
+      <c r="B23" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="9">
         <v>0.06</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>2.8936170212765899E-2</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>0.1048</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="3">
         <v>4.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="13" t="s">
+      <c r="I23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="17"/>
+      <c r="B24" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="9">
         <v>5.7048404833159698E-2</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>4.2255112290472702E-3</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>2.8252695378406301E-2</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>0.10510815509454199</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <v>1.7643330483861599E-2</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="3">
         <v>4.55786847491019E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="14" t="s">
+      <c r="I24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="14.7" thickBot="1">
+      <c r="A25" s="18"/>
+      <c r="B25" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="10">
         <v>0.119366148206726</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>0.21787842258815099</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>0.72347678916827796</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <v>0.21468821460627499</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>0.38143145743145701</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="5">
         <v>0.23215215490358701</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="18" t="s">
+      <c r="I25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="8">
         <v>8.0278499278499199E-2</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>0</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>1.2515644555694599E-3</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="1">
         <v>5.4285714285714198E-3</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="1">
         <v>0.101303018876548</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="13" t="s">
+      <c r="I26" s="1">
+        <v>0.14785134888617801</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0.106666586359</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="17"/>
+      <c r="B27" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="9">
         <v>0.10199999999999999</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>6.3829787234042498E-3</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <v>0.14399999999999999</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="3">
         <v>2.5999999999999902E-2</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="3">
         <v>0.183999999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="13" t="s">
+      <c r="I27" s="3">
+        <v>0.19399999999999901</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="17"/>
+      <c r="B28" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="9">
         <v>0.109582198420971</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>2.5448315279580601E-3</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>7.1074775460471303E-3</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="3">
         <v>0.15518598336827999</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="3">
         <v>2.6162327541183899E-2</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="3">
         <v>0.19717187578661599</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
-      <c r="B29" s="13" t="s">
+      <c r="I28" s="3">
+        <v>0.20560028443622899</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0.126121489921</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="17"/>
+      <c r="B29" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="9">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>1.0638297872340399E-2</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="3">
         <v>0.12999999999999901</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="3">
         <v>0.02</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="3">
         <v>0.16899999999999901</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
-      <c r="B30" s="13" t="s">
+      <c r="I29" s="3">
+        <v>0.151999999999999</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="17"/>
+      <c r="B30" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="9">
         <v>9.6834435176489805E-2</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>3.0186140745725801E-3</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <v>1.0100510782572099E-2</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="3">
         <v>0.14153308959412</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="3">
         <v>2.1683607477192699E-2</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="3">
         <v>0.18110812897384301</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
-      <c r="B31" s="13" t="s">
+      <c r="I30" s="3">
+        <v>0.17126376947328401</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0.120966585463</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="17"/>
+      <c r="B31" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="9">
         <v>8.0799999999999997E-2</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <v>1.0638297872340399E-2</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="3">
         <v>0.1072</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="3">
         <v>2.0400000000000001E-2</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="3">
         <v>0.12759999999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
-      <c r="B32" s="13" t="s">
+      <c r="I31" s="3">
+        <v>0.126</v>
+      </c>
+      <c r="J31" s="4">
+        <v>9.9599999999999994E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="17"/>
+      <c r="B32" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="9">
         <v>8.7609130905217603E-2</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <v>1.64772008520269E-3</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="3">
         <v>1.04075003802574E-2</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="3">
         <v>0.11921210504217999</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="3">
         <v>2.1254366591770501E-2</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="3">
         <v>0.14446224361183799</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="14" t="s">
+      <c r="I32" s="3">
+        <v>0.14352076083743701</v>
+      </c>
+      <c r="J32" s="4">
+        <v>0.106379319599</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="14.7" thickBot="1">
+      <c r="A33" s="18"/>
+      <c r="B33" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="10">
         <v>3.1870627311826102E-3</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="5">
         <v>0</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="5">
         <v>1.11982082866741E-3</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="5">
         <v>1.2548254104011399E-3</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="5">
         <v>3.0952380952380901E-3</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="5">
         <v>8.4693584580342908E-3</v>
       </c>
+      <c r="I33" s="5">
+        <v>1.0342654879411901E-2</v>
+      </c>
+      <c r="J33" s="6">
+        <v>1.2951555359399999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="9">
+        <v>6.6666666666700004E-3</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1.08695652174E-2</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="17"/>
+      <c r="B35" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="9">
+        <v>0.128</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="G35" s="3">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="17"/>
+      <c r="B36" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="9">
+        <v>0.12638513326100001</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1.2890889964899999E-2</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0.17860668821199999</v>
+      </c>
+      <c r="G36" s="3">
+        <v>6.5766258192599999E-2</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0.178382360972</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="17"/>
+      <c r="B37" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="9">
+        <v>0.106</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="G37" s="3">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0.192</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="17"/>
+      <c r="B38" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="9">
+        <v>0.11150813176</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3">
+        <v>2.3973936609200001E-2</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0.16552422102</v>
+      </c>
+      <c r="G38" s="3">
+        <v>6.2777132688900006E-2</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0.190787358543</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="17"/>
+      <c r="B39" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0.1328</v>
+      </c>
+      <c r="G39" s="3">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0.1552</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="17"/>
+      <c r="B40" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="9">
+        <v>8.9716725615599999E-2</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>2.0205626292000001E-2</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0.142921307483</v>
+      </c>
+      <c r="G40" s="3">
+        <v>4.9221051943500002E-2</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0.16358513150099999</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="14.7" thickBot="1">
+      <c r="A41" s="18"/>
+      <c r="B41" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="10">
+        <v>1.8181818181799999E-4</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5">
+        <v>3.20512820513E-3</v>
+      </c>
+      <c r="H41" s="5">
+        <v>3.4710743801699999E-4</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+    </row>
+    <row r="49" spans="3:8">
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A17"/>
     <mergeCell ref="A18:A25"/>
     <mergeCell ref="A26:A33"/>
+    <mergeCell ref="A34:A41"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:H33">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>C2=MAX($C2:$H2)</formula>
+  <conditionalFormatting sqref="C2:J41">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>C2=MIN($C2:$J2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>C2=MIN($C2:$H2)</formula>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>C2=MAX($C2:$J2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="84" fitToWidth="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/summary/summary_week_50_100.xlsx
+++ b/summary/summary_week_50_100.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hankyu\Desktop\BAX\model_comparison\summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6307ADA4-E66B-461F-BEA6-D503991B770A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A4DAC8-4C4A-4C6A-A4AC-8CA6D8C2A62E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="642" yWindow="462" windowWidth="19200" windowHeight="15762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
   <si>
     <t>baseline_agg</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>proposed_emb</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Neural
@@ -740,6 +737,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -754,9 +754,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1133,8 +1130,8 @@
   </sheetPr>
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4"/>
@@ -1179,7 +1176,7 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -1203,15 +1200,15 @@
       <c r="H2" s="1">
         <v>3.32637957005016E-2</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>21</v>
+      <c r="I2" s="1">
+        <v>2.3474418466535401E-2</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1.35729788102669E-2</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="17"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="12" t="s">
         <v>7</v>
       </c>
@@ -1233,15 +1230,15 @@
       <c r="H3" s="3">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>21</v>
+      <c r="I3" s="3">
+        <v>2.5999999999999902E-2</v>
+      </c>
+      <c r="J3" s="4">
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="17"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
@@ -1263,15 +1260,15 @@
       <c r="H4" s="3">
         <v>4.3630892943880499E-2</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>21</v>
+      <c r="I4" s="3">
+        <v>2.1206918050881599E-2</v>
+      </c>
+      <c r="J4" s="4">
+        <v>2.4360328290648402E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="17"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="12" t="s">
         <v>9</v>
       </c>
@@ -1293,15 +1290,15 @@
       <c r="H5" s="3">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>21</v>
+      <c r="I5" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="J5" s="4">
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="17"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
@@ -1323,15 +1320,15 @@
       <c r="H6" s="3">
         <v>4.6178460859155598E-2</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>21</v>
+      <c r="I6" s="3">
+        <v>2.78223478109327E-2</v>
+      </c>
+      <c r="J6" s="4">
+        <v>3.0538235616927301E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="17"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
@@ -1353,15 +1350,15 @@
       <c r="H7" s="3">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>21</v>
+      <c r="I7" s="3">
+        <v>4.24E-2</v>
+      </c>
+      <c r="J7" s="4">
+        <v>3.9600000000000003E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="17"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="12" t="s">
         <v>12</v>
       </c>
@@ -1383,15 +1380,15 @@
       <c r="H8" s="3">
         <v>4.9567988731444197E-2</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>21</v>
+      <c r="I8" s="3">
+        <v>3.7427105225206703E-2</v>
+      </c>
+      <c r="J8" s="4">
+        <v>3.6182259395885201E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.7" thickBot="1">
-      <c r="A9" s="18"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="15" t="s">
         <v>13</v>
       </c>
@@ -1413,15 +1410,15 @@
       <c r="H9" s="5">
         <v>4.2159223641796296E-3</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>21</v>
+      <c r="I9" s="5">
+        <v>3.2745007642765601E-3</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1.95748351218722E-3</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -1453,7 +1450,7 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="17"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="12" t="s">
         <v>7</v>
       </c>
@@ -1483,7 +1480,7 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="17"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="12" t="s">
         <v>8</v>
       </c>
@@ -1513,7 +1510,7 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="17"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="12" t="s">
         <v>9</v>
       </c>
@@ -1543,7 +1540,7 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="17"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="12" t="s">
         <v>10</v>
       </c>
@@ -1573,7 +1570,7 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="17"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="12" t="s">
         <v>11</v>
       </c>
@@ -1603,7 +1600,7 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="17"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="12" t="s">
         <v>12</v>
       </c>
@@ -1633,7 +1630,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.7" thickBot="1">
-      <c r="A17" s="18"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="15" t="s">
         <v>13</v>
       </c>
@@ -1663,7 +1660,7 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -1687,15 +1684,15 @@
       <c r="H18" s="1">
         <v>3.3018705844493401E-2</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>21</v>
+      <c r="I18" s="1">
+        <v>3.8176090489465103E-2</v>
+      </c>
+      <c r="J18" s="2">
+        <v>3.3100195304300702E-2</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="17"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="12" t="s">
         <v>7</v>
       </c>
@@ -1717,15 +1714,15 @@
       <c r="H19" s="3">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>21</v>
+      <c r="I19" s="3">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.04</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="17"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="12" t="s">
         <v>8</v>
       </c>
@@ -1747,15 +1744,15 @@
       <c r="H20" s="3">
         <v>4.0186121156406303E-2</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>21</v>
+      <c r="I20" s="3">
+        <v>5.9126328631048601E-2</v>
+      </c>
+      <c r="J20" s="4">
+        <v>4.1727638833092599E-2</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="17"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="12" t="s">
         <v>9</v>
       </c>
@@ -1777,15 +1774,15 @@
       <c r="H21" s="3">
         <v>4.7E-2</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>21</v>
+      <c r="I21" s="3">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="J21" s="4">
+        <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="17"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="12" t="s">
         <v>10</v>
       </c>
@@ -1807,15 +1804,15 @@
       <c r="H22" s="3">
         <v>4.6026841671599601E-2</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>21</v>
+      <c r="I22" s="3">
+        <v>5.7034538768146903E-2</v>
+      </c>
+      <c r="J22" s="4">
+        <v>4.3856603299669998E-2</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="17"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="12" t="s">
         <v>11</v>
       </c>
@@ -1837,15 +1834,15 @@
       <c r="H23" s="3">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>21</v>
+      <c r="I23" s="3">
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="J23" s="4">
+        <v>4.1599999999999998E-2</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="17"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="12" t="s">
         <v>12</v>
       </c>
@@ -1867,15 +1864,15 @@
       <c r="H24" s="3">
         <v>4.55786847491019E-2</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>21</v>
+      <c r="I24" s="3">
+        <v>5.5119147840978301E-2</v>
+      </c>
+      <c r="J24" s="4">
+        <v>4.21365397678388E-2</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.7" thickBot="1">
-      <c r="A25" s="18"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="15" t="s">
         <v>13</v>
       </c>
@@ -1897,15 +1894,15 @@
       <c r="H25" s="5">
         <v>0.23215215490358701</v>
       </c>
-      <c r="I25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>21</v>
+      <c r="I25" s="5">
+        <v>0.30207188021173798</v>
+      </c>
+      <c r="J25" s="6">
+        <v>0.30073465461485599</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="13" t="s">
@@ -1937,7 +1934,7 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="17"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="12" t="s">
         <v>7</v>
       </c>
@@ -1967,7 +1964,7 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="17"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="12" t="s">
         <v>8</v>
       </c>
@@ -1997,7 +1994,7 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="17"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="12" t="s">
         <v>9</v>
       </c>
@@ -2027,7 +2024,7 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="17"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="12" t="s">
         <v>10</v>
       </c>
@@ -2057,7 +2054,7 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="17"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="12" t="s">
         <v>11</v>
       </c>
@@ -2087,7 +2084,7 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="17"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="12" t="s">
         <v>12</v>
       </c>
@@ -2117,7 +2114,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.7" thickBot="1">
-      <c r="A33" s="18"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="15" t="s">
         <v>13</v>
       </c>
@@ -2147,8 +2144,8 @@
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="20" t="s">
-        <v>22</v>
+      <c r="A34" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>6</v>
@@ -2171,15 +2168,15 @@
       <c r="H34" s="3">
         <v>0.03</v>
       </c>
-      <c r="I34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>21</v>
+      <c r="I34" s="3">
+        <v>2.8571428571428501E-2</v>
+      </c>
+      <c r="J34" s="4">
+        <v>0.04</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="17"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="12" t="s">
         <v>7</v>
       </c>
@@ -2201,15 +2198,15 @@
       <c r="H35" s="3">
         <v>0.17199999999999999</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>21</v>
+      <c r="I35" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="J35" s="4">
+        <v>0.22399999999999901</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="17"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="12" t="s">
         <v>8</v>
       </c>
@@ -2231,15 +2228,15 @@
       <c r="H36" s="3">
         <v>0.178382360972</v>
       </c>
-      <c r="I36" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>21</v>
+      <c r="I36" s="3">
+        <v>0.164650083870541</v>
+      </c>
+      <c r="J36" s="4">
+        <v>0.22893667156839301</v>
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="17"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="12" t="s">
         <v>9</v>
       </c>
@@ -2261,15 +2258,15 @@
       <c r="H37" s="3">
         <v>0.192</v>
       </c>
-      <c r="I37" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>21</v>
+      <c r="I37" s="3">
+        <v>0.158</v>
+      </c>
+      <c r="J37" s="4">
+        <v>0.184</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="17"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="12" t="s">
         <v>10</v>
       </c>
@@ -2291,15 +2288,15 @@
       <c r="H38" s="3">
         <v>0.190787358543</v>
       </c>
-      <c r="I38" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>21</v>
+      <c r="I38" s="3">
+        <v>0.162660913424754</v>
+      </c>
+      <c r="J38" s="4">
+        <v>0.19874511529818001</v>
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="17"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="12" t="s">
         <v>11</v>
       </c>
@@ -2321,15 +2318,15 @@
       <c r="H39" s="3">
         <v>0.1552</v>
       </c>
-      <c r="I39" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>21</v>
+      <c r="I39" s="3">
+        <v>0.16159999999999999</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0.1472</v>
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="17"/>
+      <c r="A40" s="18"/>
       <c r="B40" s="12" t="s">
         <v>12</v>
       </c>
@@ -2351,15 +2348,15 @@
       <c r="H40" s="3">
         <v>0.16358513150099999</v>
       </c>
-      <c r="I40" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>21</v>
+      <c r="I40" s="3">
+        <v>0.163641566110344</v>
+      </c>
+      <c r="J40" s="4">
+        <v>0.16448163504649199</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.7" thickBot="1">
-      <c r="A41" s="18"/>
+      <c r="A41" s="19"/>
       <c r="B41" s="15" t="s">
         <v>13</v>
       </c>
@@ -2381,76 +2378,76 @@
       <c r="H41" s="5">
         <v>3.4710743801699999E-4</v>
       </c>
-      <c r="I41" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>21</v>
+      <c r="I41" s="5">
+        <v>7.6523476523476504E-4</v>
+      </c>
+      <c r="J41" s="6">
+        <v>5.1804760895669897E-4</v>
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
     </row>
     <row r="49" spans="3:8">
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/summary/summary_week_50_100.xlsx
+++ b/summary/summary_week_50_100.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hankyu\Desktop\BAX\model_comparison\summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A4DAC8-4C4A-4C6A-A4AC-8CA6D8C2A62E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155E207B-9E60-4F4E-8233-6F873B33CC41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="642" yWindow="462" windowWidth="19200" windowHeight="15762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
   <si>
     <t>baseline_agg</t>
   </si>
@@ -97,6 +97,12 @@
   <si>
     <t>Neural
 Network</t>
+  </si>
+  <si>
+    <t>proposed_textsim</t>
+  </si>
+  <si>
+    <t>proposed_cet</t>
   </si>
 </sst>
 </file>
@@ -428,7 +434,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -559,9 +565,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -572,66 +576,6 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -670,6 +614,61 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -720,41 +719,37 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1128,11 +1123,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4"/>
   <cols>
@@ -1142,47 +1135,54 @@
     <col min="8" max="8" width="14.15625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.83984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.05078125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7890625" customWidth="1"/>
+    <col min="11" max="11" width="15.5234375" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.7" thickBot="1">
-      <c r="A1" s="11"/>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:12" ht="14.7" thickBot="1">
+      <c r="A1" s="15"/>
+      <c r="B1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="17" t="s">
+      <c r="K1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="1">
         <v>2.01036486347262E-2</v>
       </c>
       <c r="D2" s="1">
@@ -1201,230 +1201,278 @@
         <v>3.32637957005016E-2</v>
       </c>
       <c r="I2" s="1">
-        <v>2.3474418466535401E-2</v>
-      </c>
-      <c r="J2" s="2">
+        <v>4.6118858432726999E-2</v>
+      </c>
+      <c r="J2" s="1">
         <v>1.35729788102669E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="18"/>
-      <c r="B3" s="12" t="s">
+      <c r="K2" s="1">
+        <v>3.96947387586922E-2</v>
+      </c>
+      <c r="L2" s="8">
+        <v>2.3258736474253701E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="12"/>
+      <c r="B3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>1.4893617021276499E-2</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>0.06</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="I3" s="3">
-        <v>2.5999999999999902E-2</v>
-      </c>
-      <c r="J3" s="4">
+      <c r="I3" s="2">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="J3" s="2">
         <v>2.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="18"/>
-      <c r="B4" s="12" t="s">
+      <c r="K3" s="2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="L3" s="9">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="12"/>
+      <c r="B4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="2">
         <v>4.0647786750540099E-3</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>6.2409815444356099E-3</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>1.6080860851031799E-2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>5.8534271597896002E-2</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>3.8666719171286001E-2</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>4.3630892943880499E-2</v>
       </c>
-      <c r="I4" s="3">
-        <v>2.1206918050881599E-2</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="I4" s="2">
+        <v>4.26629979461641E-2</v>
+      </c>
+      <c r="J4" s="2">
         <v>2.4360328290648402E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="18"/>
-      <c r="B5" s="12" t="s">
+      <c r="K4" s="2">
+        <v>3.9245714737054398E-2</v>
+      </c>
+      <c r="L4" s="9">
+        <v>1.54407215449566E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="12"/>
+      <c r="B5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="2">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>1.48936170212766E-2</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>3.1E-2</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="I5" s="3">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="I5" s="2">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="J5" s="2">
         <v>3.4000000000000002E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="18"/>
-      <c r="B6" s="12" t="s">
+      <c r="K5" s="2">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="L5" s="9">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="12"/>
+      <c r="B6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="2">
         <v>1.32690548382606E-2</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>5.3777349839337603E-3</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>1.5675350613834502E-2</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>6.2108010554847902E-2</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>3.5397028218211099E-2</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>4.6178460859155598E-2</v>
       </c>
-      <c r="I6" s="3">
-        <v>2.78223478109327E-2</v>
-      </c>
-      <c r="J6" s="4">
+      <c r="I6" s="2">
+        <v>4.1542502971032201E-2</v>
+      </c>
+      <c r="J6" s="2">
         <v>3.0538235616927301E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="18"/>
-      <c r="B7" s="12" t="s">
+      <c r="K6" s="2">
+        <v>4.8234312729322999E-2</v>
+      </c>
+      <c r="L6" s="9">
+        <v>2.5466507547565801E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="12"/>
+      <c r="B7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="2">
         <v>1.84E-2</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>2.8E-3</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>1.1063829787233999E-2</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>4.9599999999999998E-2</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>2.6800000000000001E-2</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="I7" s="3">
-        <v>4.24E-2</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="I7" s="2">
+        <v>4.1200000000000001E-2</v>
+      </c>
+      <c r="J7" s="2">
         <v>3.9600000000000003E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="18"/>
-      <c r="B8" s="12" t="s">
+      <c r="K7" s="2">
+        <v>5.3199999999999997E-2</v>
+      </c>
+      <c r="L7" s="9">
+        <v>4.3200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="12"/>
+      <c r="B8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="2">
         <v>1.5941422928318599E-2</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>3.48798923303401E-3</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>1.25088733324963E-2</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>5.2002829042240503E-2</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>3.0269978642638098E-2</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>4.9567988731444197E-2</v>
       </c>
-      <c r="I8" s="3">
-        <v>3.7427105225206703E-2</v>
-      </c>
-      <c r="J8" s="4">
+      <c r="I8" s="2">
+        <v>4.0483930444340302E-2</v>
+      </c>
+      <c r="J8" s="2">
         <v>3.6182259395885201E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="14.7" thickBot="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="15" t="s">
+      <c r="K8" s="2">
+        <v>5.1112835289877298E-2</v>
+      </c>
+      <c r="L8" s="9">
+        <v>3.68512750584424E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="14.7" thickBot="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="3">
         <v>4.5818011733987501E-3</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>7.1428571428571396E-4</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>1.11982082866741E-3</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <v>1.1291193259694099E-2</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <v>3.0952380952380901E-3</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <v>4.2159223641796296E-3</v>
       </c>
-      <c r="I9" s="5">
-        <v>3.2745007642765601E-3</v>
-      </c>
-      <c r="J9" s="6">
+      <c r="I9" s="3">
+        <v>3.1205827967374302E-3</v>
+      </c>
+      <c r="J9" s="3">
         <v>1.95748351218722E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="17" t="s">
+      <c r="K9" s="3">
+        <v>3.1863471489505398E-3</v>
+      </c>
+      <c r="L9" s="10">
+        <v>1.81961365436225E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="1">
         <v>7.1111111111111097E-2</v>
       </c>
       <c r="D10" s="1">
@@ -1443,230 +1491,278 @@
         <v>0.11560750360750301</v>
       </c>
       <c r="I10" s="1">
-        <v>0.12533044733044699</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0.146169958696</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="18"/>
-      <c r="B11" s="12" t="s">
+        <v>0.101153594771241</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.146169958696274</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.101801311591634</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0.114730158730158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="12"/>
+      <c r="B11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="2">
         <v>0.13600000000000001</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>0</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>5.1063829787233998E-2</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>0.16800000000000001</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>0.16800000000000001</v>
       </c>
-      <c r="I11" s="3">
-        <v>0.184</v>
-      </c>
-      <c r="J11" s="4">
+      <c r="I11" s="2">
+        <v>0.192</v>
+      </c>
+      <c r="J11" s="2">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="18"/>
-      <c r="B12" s="12" t="s">
+      <c r="K11" s="2">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="12"/>
+      <c r="B12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="2">
         <v>0.126846020037925</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>4.4843189712866799E-2</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>0.17020935991336</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>7.8818303009853902E-2</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>0.155845922263322</v>
       </c>
-      <c r="I12" s="3">
-        <v>0.18027245829779501</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0.17083683205899999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="18"/>
-      <c r="B13" s="12" t="s">
+      <c r="I12" s="2">
+        <v>0.18939755834553401</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.170836832059268</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.157911888251866</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0.17564091991657099</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="12"/>
+      <c r="B13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="2">
         <v>0.10199999999999999</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>2E-3</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>4.6808510638297801E-2</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>0.14399999999999899</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>0.159999999999999</v>
       </c>
-      <c r="I13" s="3">
-        <v>0.20399999999999899</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0.16800000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="18"/>
-      <c r="B14" s="12" t="s">
+      <c r="I13" s="2">
+        <v>0.19799999999999901</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.16799999999999901</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="L13" s="9">
+        <v>0.159999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="12"/>
+      <c r="B14" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="2">
         <v>0.106164363237664</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>1.43732595793906E-3</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>4.3658658040458903E-2</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>0.15256764226826999</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>7.6739841025681599E-2</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>0.15463839514032701</v>
       </c>
-      <c r="I14" s="3">
-        <v>0.19619301215073101</v>
-      </c>
-      <c r="J14" s="4">
-        <v>0.16634713464799999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="18"/>
-      <c r="B15" s="12" t="s">
+      <c r="I14" s="2">
+        <v>0.19463861910531</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.16634713464843301</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.147848111074139</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0.165131310314206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="12"/>
+      <c r="B15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="2">
         <v>7.6799999999999993E-2</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>4.5531914893617E-2</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>0.12239999999999999</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>4.2799999999999998E-2</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <v>0.13120000000000001</v>
       </c>
-      <c r="I15" s="3">
-        <v>0.16639999999999999</v>
-      </c>
-      <c r="J15" s="4">
+      <c r="I15" s="2">
+        <v>0.1552</v>
+      </c>
+      <c r="J15" s="2">
         <v>0.13439999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="18"/>
-      <c r="B16" s="12" t="s">
+      <c r="K15" s="2">
+        <v>0.1164</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0.14080000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="12"/>
+      <c r="B16" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="2">
         <v>8.5589769890152698E-2</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>7.8456894169710596E-4</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>4.4491018075143697E-2</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>0.13254944311185399</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <v>5.4074096300911402E-2</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <v>0.136251261287372</v>
       </c>
-      <c r="I16" s="3">
-        <v>0.17215019849659799</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0.14234589730899999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="14.7" thickBot="1">
-      <c r="A17" s="19"/>
-      <c r="B17" s="15" t="s">
+      <c r="I16" s="2">
+        <v>0.16454960585997599</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.14234589730944799</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.12444458692260101</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0.14841511382949499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="14.7" thickBot="1">
+      <c r="A17" s="13"/>
+      <c r="B17" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="3">
         <v>2.1986272510315999E-3</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="3">
         <v>0</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="3">
         <v>1.11499214389263E-2</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="3">
         <v>4.9973719151780102E-3</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="3">
         <v>6.1721611721611697E-3</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="3">
         <v>4.9537566805579903E-3</v>
       </c>
-      <c r="I17" s="5">
-        <v>3.9739699177458402E-3</v>
-      </c>
-      <c r="J17" s="6">
-        <v>6.5130486519600003E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="17" t="s">
+      <c r="I17" s="3">
+        <v>3.6864528175625001E-3</v>
+      </c>
+      <c r="J17" s="3">
+        <v>6.5130486519553096E-3</v>
+      </c>
+      <c r="K17" s="3">
+        <v>6.1552122101037401E-3</v>
+      </c>
+      <c r="L17" s="10">
+        <v>3.43560910693978E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="1">
         <v>2.5679809508335101E-2</v>
       </c>
       <c r="D18" s="1">
@@ -1687,228 +1783,276 @@
       <c r="I18" s="1">
         <v>3.8176090489465103E-2</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="1">
         <v>3.3100195304300702E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="18"/>
-      <c r="B19" s="12" t="s">
+      <c r="K18" s="1">
+        <v>3.3525135593937098E-2</v>
+      </c>
+      <c r="L18" s="8">
+        <v>3.3948098003627497E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="12"/>
+      <c r="B19" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="2">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>2.5531914893616999E-2</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>0.126</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <v>1.39999999999999E-2</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="2">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="2">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="2">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="18"/>
-      <c r="B20" s="12" t="s">
+      <c r="K19" s="2">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="L19" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="12"/>
+      <c r="B20" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="2">
         <v>4.8304829539298703E-2</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>5.7269197950493801E-3</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>2.6465001599952999E-2</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>0.116124171383267</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="2">
         <v>1.3695478485916599E-2</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="2">
         <v>4.0186121156406303E-2</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="2">
         <v>5.9126328631048601E-2</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="2">
         <v>4.1727638833092599E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="18"/>
-      <c r="B21" s="12" t="s">
+      <c r="K20" s="2">
+        <v>4.5353782599254801E-2</v>
+      </c>
+      <c r="L20" s="9">
+        <v>4.5350382811191803E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="12"/>
+      <c r="B21" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="2">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>2.7659574468085101E-2</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>0.115</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="2">
         <v>4.7E-2</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="2">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="2">
         <v>4.3999999999999997E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="18"/>
-      <c r="B22" s="12" t="s">
+      <c r="K21" s="2">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="L21" s="9">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="12"/>
+      <c r="B22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="2">
         <v>5.32425092081589E-2</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>6.6534817833372398E-3</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>2.7323724614383101E-2</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>0.111654225127243</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="2">
         <v>1.2343486416670799E-2</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="2">
         <v>4.6026841671599601E-2</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="2">
         <v>5.7034538768146903E-2</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="2">
         <v>4.3856603299669998E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="18"/>
-      <c r="B23" s="12" t="s">
+      <c r="K22" s="2">
+        <v>4.5935892274063299E-2</v>
+      </c>
+      <c r="L22" s="9">
+        <v>4.3312049482674302E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="12"/>
+      <c r="B23" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="2">
         <v>0.06</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>2.8936170212765899E-2</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>0.1048</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="2">
         <v>5.3600000000000002E-2</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="2">
         <v>4.1599999999999998E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="18"/>
-      <c r="B24" s="12" t="s">
+      <c r="K23" s="2">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="L23" s="9">
+        <v>4.5199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="12"/>
+      <c r="B24" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="2">
         <v>5.7048404833159698E-2</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>4.2255112290472702E-3</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>2.8252695378406301E-2</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <v>0.10510815509454199</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="2">
         <v>1.7643330483861599E-2</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="2">
         <v>4.55786847491019E-2</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="2">
         <v>5.5119147840978301E-2</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="2">
         <v>4.21365397678388E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="14.7" thickBot="1">
-      <c r="A25" s="19"/>
-      <c r="B25" s="15" t="s">
+      <c r="K24" s="2">
+        <v>4.6790033222465402E-2</v>
+      </c>
+      <c r="L24" s="9">
+        <v>4.4185799704741999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="14.7" thickBot="1">
+      <c r="A25" s="13"/>
+      <c r="B25" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="3">
         <v>0.119366148206726</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="3">
         <v>0.21787842258815099</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="3">
         <v>0.72347678916827796</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="3">
         <v>0.21468821460627499</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="3">
         <v>0.38143145743145701</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="3">
         <v>0.23215215490358701</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="3">
         <v>0.30207188021173798</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="3">
         <v>0.30073465461485599</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="20" t="s">
+      <c r="K25" s="3">
+        <v>0.340669146250068</v>
+      </c>
+      <c r="L25" s="10">
+        <v>0.421342120510523</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="1">
         <v>8.0278499278499199E-2</v>
       </c>
       <c r="D26" s="1">
@@ -1929,525 +2073,621 @@
       <c r="I26" s="1">
         <v>0.14785134888617801</v>
       </c>
-      <c r="J26" s="2">
-        <v>0.106666586359</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="18"/>
-      <c r="B27" s="12" t="s">
+      <c r="J26" s="1">
+        <v>0.10666658635882401</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.12187166907166901</v>
+      </c>
+      <c r="L26" s="8">
+        <v>0.130270994826966</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="12"/>
+      <c r="B27" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="2">
         <v>0.10199999999999999</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>6.3829787234042498E-3</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <v>0.14399999999999999</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="2">
         <v>2.5999999999999902E-2</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="2">
         <v>0.183999999999999</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="2">
         <v>0.19399999999999901</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="2">
         <v>0.126</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="18"/>
-      <c r="B28" s="12" t="s">
+      <c r="K27" s="2">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="L27" s="9">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="12"/>
+      <c r="B28" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="2">
         <v>0.109582198420971</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>2.5448315279580601E-3</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>7.1074775460471303E-3</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <v>0.15518598336827999</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="2">
         <v>2.6162327541183899E-2</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="2">
         <v>0.19717187578661599</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="2">
         <v>0.20560028443622899</v>
       </c>
-      <c r="J28" s="4">
-        <v>0.126121489921</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="18"/>
-      <c r="B29" s="12" t="s">
+      <c r="J28" s="2">
+        <v>0.12612148992050701</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0.14340881783107901</v>
+      </c>
+      <c r="L28" s="9">
+        <v>0.136253513411104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="12"/>
+      <c r="B29" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="2">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>1.0638297872340399E-2</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <v>0.12999999999999901</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="2">
         <v>0.02</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="2">
         <v>0.16899999999999901</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="2">
         <v>0.151999999999999</v>
       </c>
-      <c r="J29" s="4">
-        <v>0.11700000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="18"/>
-      <c r="B30" s="12" t="s">
+      <c r="J29" s="2">
+        <v>0.11699999999999899</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0.13699999999999901</v>
+      </c>
+      <c r="L29" s="9">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="12"/>
+      <c r="B30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="2">
         <v>9.6834435176489805E-2</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <v>3.0186140745725801E-3</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <v>1.0100510782572099E-2</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <v>0.14153308959412</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="2">
         <v>2.1683607477192699E-2</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="2">
         <v>0.18110812897384301</v>
       </c>
-      <c r="I30" s="3">
-        <v>0.17126376947328401</v>
-      </c>
-      <c r="J30" s="4">
-        <v>0.120966585463</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="18"/>
-      <c r="B31" s="12" t="s">
+      <c r="I30" s="2">
+        <v>0.171250025464426</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0.120966585462568</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0.139246179343226</v>
+      </c>
+      <c r="L30" s="9">
+        <v>0.13122046553247399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="12"/>
+      <c r="B31" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="2">
         <v>8.0799999999999997E-2</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <v>1.0638297872340399E-2</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <v>0.1072</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="2">
         <v>2.0400000000000001E-2</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="2">
         <v>0.12759999999999999</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="2">
         <v>0.126</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="2">
         <v>9.9599999999999994E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="18"/>
-      <c r="B32" s="12" t="s">
+      <c r="K31" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="L31" s="9">
+        <v>0.1072</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="12"/>
+      <c r="B32" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="2">
         <v>8.7609130905217603E-2</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="2">
         <v>1.64772008520269E-3</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <v>1.04075003802574E-2</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <v>0.11921210504217999</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="2">
         <v>2.1254366591770501E-2</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="2">
         <v>0.14446224361183799</v>
       </c>
-      <c r="I32" s="3">
-        <v>0.14352076083743701</v>
-      </c>
-      <c r="J32" s="4">
-        <v>0.106379319599</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="14.7" thickBot="1">
-      <c r="A33" s="19"/>
-      <c r="B33" s="15" t="s">
+      <c r="I32" s="2">
+        <v>0.143513258626527</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0.10637931959892</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0.126027485980613</v>
+      </c>
+      <c r="L32" s="9">
+        <v>0.114505153069327</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="14.7" thickBot="1">
+      <c r="A33" s="13"/>
+      <c r="B33" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="3">
         <v>3.1870627311826102E-3</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="3">
         <v>0</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="3">
         <v>1.11982082866741E-3</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="3">
         <v>1.2548254104011399E-3</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="3">
         <v>3.0952380952380901E-3</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="3">
         <v>8.4693584580342908E-3</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="3">
         <v>1.0342654879411901E-2</v>
       </c>
-      <c r="J33" s="6">
-        <v>1.2951555359399999E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="21" t="s">
+      <c r="J33" s="3">
+        <v>1.29515553594216E-2</v>
+      </c>
+      <c r="K33" s="3">
+        <v>8.4617660830645005E-3</v>
+      </c>
+      <c r="L33" s="10">
+        <v>1.3137712121975601E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="9">
-        <v>6.6666666666700004E-3</v>
-      </c>
-      <c r="D34" s="3">
+      <c r="C34" s="1">
+        <v>6.6666666666666602E-3</v>
+      </c>
+      <c r="D34" s="1">
         <v>0</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="1">
         <v>0</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="1">
         <v>0</v>
       </c>
-      <c r="G34" s="3">
-        <v>1.08695652174E-2</v>
-      </c>
-      <c r="H34" s="3">
+      <c r="G34" s="1">
+        <v>1.0869565217391301E-2</v>
+      </c>
+      <c r="H34" s="1">
         <v>0.03</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="1">
         <v>2.8571428571428501E-2</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34" s="1">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="18"/>
-      <c r="B35" s="12" t="s">
+      <c r="K34" s="1">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="L34" s="8">
+        <v>7.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="12"/>
+      <c r="B35" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="2">
         <v>0.128</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>0</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <v>0.18</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="2">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="2">
         <v>0.17199999999999999</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="2">
         <v>0.16</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35" s="2">
         <v>0.22399999999999901</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="18"/>
-      <c r="B36" s="12" t="s">
+      <c r="K35" s="2">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="L35" s="9">
+        <v>0.156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="12"/>
+      <c r="B36" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="9">
-        <v>0.12638513326100001</v>
-      </c>
-      <c r="D36" s="3">
+      <c r="C36" s="2">
+        <v>0.12638513326078399</v>
+      </c>
+      <c r="D36" s="2">
         <v>0</v>
       </c>
-      <c r="E36" s="3">
-        <v>1.2890889964899999E-2</v>
-      </c>
-      <c r="F36" s="3">
-        <v>0.17860668821199999</v>
-      </c>
-      <c r="G36" s="3">
-        <v>6.5766258192599999E-2</v>
-      </c>
-      <c r="H36" s="3">
-        <v>0.178382360972</v>
-      </c>
-      <c r="I36" s="3">
+      <c r="E36" s="2">
+        <v>1.28908899648781E-2</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.17860668821172401</v>
+      </c>
+      <c r="G36" s="2">
+        <v>6.5766258192586094E-2</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0.17838236097165999</v>
+      </c>
+      <c r="I36" s="2">
         <v>0.164650083870541</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J36" s="2">
         <v>0.22893667156839301</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="18"/>
-      <c r="B37" s="12" t="s">
+      <c r="K36" s="2">
+        <v>0.165836421690154</v>
+      </c>
+      <c r="L36" s="9">
+        <v>0.16863230699527901</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="12"/>
+      <c r="B37" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="2">
         <v>0.106</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>0</v>
       </c>
-      <c r="E37" s="3">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="G37" s="3">
+      <c r="E37" s="2">
+        <v>2.79999999999999E-2</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.159999999999999</v>
+      </c>
+      <c r="G37" s="2">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="H37" s="3">
-        <v>0.192</v>
-      </c>
-      <c r="I37" s="3">
+      <c r="H37" s="2">
+        <v>0.191999999999999</v>
+      </c>
+      <c r="I37" s="2">
         <v>0.158</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J37" s="2">
         <v>0.184</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="18"/>
-      <c r="B38" s="12" t="s">
+      <c r="K37" s="2">
+        <v>0.186</v>
+      </c>
+      <c r="L37" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="12"/>
+      <c r="B38" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="9">
-        <v>0.11150813176</v>
-      </c>
-      <c r="D38" s="3">
+      <c r="C38" s="2">
+        <v>0.11150813175982099</v>
+      </c>
+      <c r="D38" s="2">
         <v>0</v>
       </c>
-      <c r="E38" s="3">
-        <v>2.3973936609200001E-2</v>
-      </c>
-      <c r="F38" s="3">
-        <v>0.16552422102</v>
-      </c>
-      <c r="G38" s="3">
-        <v>6.2777132688900006E-2</v>
-      </c>
-      <c r="H38" s="3">
-        <v>0.190787358543</v>
-      </c>
-      <c r="I38" s="3">
+      <c r="E38" s="2">
+        <v>2.3973936609196202E-2</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0.16552422102019301</v>
+      </c>
+      <c r="G38" s="2">
+        <v>6.27771326888725E-2</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0.190787358543381</v>
+      </c>
+      <c r="I38" s="2">
         <v>0.162660913424754</v>
       </c>
-      <c r="J38" s="4">
+      <c r="J38" s="2">
         <v>0.19874511529818001</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="18"/>
-      <c r="B39" s="12" t="s">
+      <c r="K38" s="2">
+        <v>0.180492015405953</v>
+      </c>
+      <c r="L38" s="9">
+        <v>0.15274354028380199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="12"/>
+      <c r="B39" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="2">
         <v>0.08</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <v>0</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <v>2.0799999999999999E-2</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="2">
         <v>0.1328</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="2">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="2">
         <v>0.1552</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="2">
         <v>0.16159999999999999</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J39" s="2">
         <v>0.1472</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="18"/>
-      <c r="B40" s="12" t="s">
+      <c r="K39" s="2">
+        <v>0.15279999999999999</v>
+      </c>
+      <c r="L39" s="9">
+        <v>0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="12"/>
+      <c r="B40" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="9">
-        <v>8.9716725615599999E-2</v>
-      </c>
-      <c r="D40" s="3">
+      <c r="C40" s="2">
+        <v>8.9716725615568704E-2</v>
+      </c>
+      <c r="D40" s="2">
         <v>0</v>
       </c>
-      <c r="E40" s="3">
-        <v>2.0205626292000001E-2</v>
-      </c>
-      <c r="F40" s="3">
-        <v>0.142921307483</v>
-      </c>
-      <c r="G40" s="3">
-        <v>4.9221051943500002E-2</v>
-      </c>
-      <c r="H40" s="3">
-        <v>0.16358513150099999</v>
-      </c>
-      <c r="I40" s="3">
+      <c r="E40" s="2">
+        <v>2.02056262920094E-2</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0.14292130748303</v>
+      </c>
+      <c r="G40" s="2">
+        <v>4.92210519434957E-2</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0.163585131500563</v>
+      </c>
+      <c r="I40" s="2">
         <v>0.163641566110344</v>
       </c>
-      <c r="J40" s="4">
+      <c r="J40" s="2">
         <v>0.16448163504649199</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="14.7" thickBot="1">
-      <c r="A41" s="19"/>
-      <c r="B41" s="15" t="s">
+      <c r="K40" s="2">
+        <v>0.15822003665333401</v>
+      </c>
+      <c r="L40" s="9">
+        <v>0.15067649013725101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="14.7" thickBot="1">
+      <c r="A41" s="13"/>
+      <c r="B41" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="10">
-        <v>1.8181818181799999E-4</v>
-      </c>
-      <c r="D41" s="5">
+      <c r="C41" s="3">
+        <v>1.8181818181818099E-4</v>
+      </c>
+      <c r="D41" s="3">
         <v>0</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="3">
         <v>0</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="3">
         <v>0</v>
       </c>
-      <c r="G41" s="5">
-        <v>3.20512820513E-3</v>
-      </c>
-      <c r="H41" s="5">
-        <v>3.4710743801699999E-4</v>
-      </c>
-      <c r="I41" s="5">
+      <c r="G41" s="3">
+        <v>3.2051282051281998E-3</v>
+      </c>
+      <c r="H41" s="3">
+        <v>3.4710743801652798E-4</v>
+      </c>
+      <c r="I41" s="3">
         <v>7.6523476523476504E-4</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J41" s="3">
         <v>5.1804760895669897E-4</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
+      <c r="K41" s="3">
+        <v>6.1680092059838802E-4</v>
+      </c>
+      <c r="L41" s="10">
+        <v>1.3563818184095201E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
     </row>
     <row r="49" spans="3:8">
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2457,12 +2697,12 @@
     <mergeCell ref="A26:A33"/>
     <mergeCell ref="A34:A41"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:J41">
+  <conditionalFormatting sqref="C2:L41">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>C2=MIN($C2:$J2)</formula>
+      <formula>C2=MIN($C2:$L2)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>C2=MAX($C2:$J2)</formula>
+      <formula>C2=MAX($C2:$L2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
